--- a/artfynd/A 54154-2018.xlsx
+++ b/artfynd/A 54154-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73597795</v>
+        <v>73597824</v>
       </c>
       <c r="B2" t="n">
-        <v>77177</v>
+        <v>93276</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,43 +692,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>353</v>
+        <v>2170</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Mottorp, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>551373.0161088589</v>
+        <v>551313.8124669526</v>
       </c>
       <c r="R2" t="n">
-        <v>6515925.219612571</v>
+        <v>6516081.021942991</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -795,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73597810</v>
+        <v>73597823</v>
       </c>
       <c r="B3" t="n">
-        <v>77259</v>
+        <v>90676</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -811,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>5966</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,13 +838,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>551373.0161088589</v>
+        <v>551313.8124669526</v>
       </c>
       <c r="R3" t="n">
-        <v>6515925.219612571</v>
+        <v>6516081.021942991</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -910,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73597824</v>
+        <v>73597772</v>
       </c>
       <c r="B4" t="n">
-        <v>93276</v>
+        <v>90008</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,37 +927,36 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2170</v>
+        <v>6031</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Mottorp, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>551313.8124669526</v>
+        <v>551214.4045088139</v>
       </c>
       <c r="R4" t="n">
-        <v>6516081.021942991</v>
+        <v>6515978.080872892</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73597772</v>
+        <v>73597770</v>
       </c>
       <c r="B5" t="n">
-        <v>90008</v>
+        <v>93375</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,26 +1042,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6031</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Mottorp, Ög</t>
@@ -1141,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73597770</v>
+        <v>73597795</v>
       </c>
       <c r="B6" t="n">
-        <v>93375</v>
+        <v>77177</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,44 +1154,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2180</v>
+        <v>353</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Mottorp, Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>551214.4045088139</v>
+        <v>551373.0161088589</v>
       </c>
       <c r="R6" t="n">
-        <v>6515978.080872892</v>
+        <v>6515925.219612571</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73597823</v>
+        <v>73597810</v>
       </c>
       <c r="B7" t="n">
-        <v>90676</v>
+        <v>77259</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1273,21 +1273,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5966</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>551313.8124669526</v>
+        <v>551373.0161088589</v>
       </c>
       <c r="R7" t="n">
-        <v>6516081.021942991</v>
+        <v>6515925.219612571</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>

--- a/artfynd/A 54154-2018.xlsx
+++ b/artfynd/A 54154-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73597824</v>
+        <v>73597795</v>
       </c>
       <c r="B2" t="n">
-        <v>93276</v>
+        <v>77177</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,44 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2170</v>
+        <v>353</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Mottorp, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>551313.8124669526</v>
+        <v>551373.0161088589</v>
       </c>
       <c r="R2" t="n">
-        <v>6516081.021942991</v>
+        <v>6515925.219612571</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -796,10 +795,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73597823</v>
+        <v>73597810</v>
       </c>
       <c r="B3" t="n">
-        <v>90676</v>
+        <v>77259</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +811,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5966</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,13 +837,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>551313.8124669526</v>
+        <v>551373.0161088589</v>
       </c>
       <c r="R3" t="n">
-        <v>6516081.021942991</v>
+        <v>6515925.219612571</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -911,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73597772</v>
+        <v>73597824</v>
       </c>
       <c r="B4" t="n">
-        <v>90008</v>
+        <v>93276</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,36 +926,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6031</v>
+        <v>2170</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Mottorp, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>551214.4045088139</v>
+        <v>551313.8124669526</v>
       </c>
       <c r="R4" t="n">
-        <v>6515978.080872892</v>
+        <v>6516081.021942991</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73597770</v>
+        <v>73597772</v>
       </c>
       <c r="B5" t="n">
-        <v>93375</v>
+        <v>90008</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,27 +1042,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>6031</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Mottorp, Ög</t>
@@ -1142,10 +1141,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73597795</v>
+        <v>73597770</v>
       </c>
       <c r="B6" t="n">
-        <v>77177</v>
+        <v>93375</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,43 +1153,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>353</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Mottorp, Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>551373.0161088589</v>
+        <v>551214.4045088139</v>
       </c>
       <c r="R6" t="n">
-        <v>6515925.219612571</v>
+        <v>6515978.080872892</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73597810</v>
+        <v>73597823</v>
       </c>
       <c r="B7" t="n">
-        <v>77259</v>
+        <v>90676</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1273,21 +1273,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>5966</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>551373.0161088589</v>
+        <v>551313.8124669526</v>
       </c>
       <c r="R7" t="n">
-        <v>6515925.219612571</v>
+        <v>6516081.021942991</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
